--- a/results/hba1c_cameraPR/hba1c_cameraPR.xlsx
+++ b/results/hba1c_cameraPR/hba1c_cameraPR.xlsx
@@ -400,10 +400,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.00521</v>
+        <v>0.00598</v>
       </c>
       <c r="E2">
-        <v>0.279</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="3">
@@ -418,10 +418,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.00787</v>
+        <v>0.00637</v>
       </c>
       <c r="E3">
-        <v>0.279</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="4">
@@ -436,15 +436,15 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.0416</v>
+        <v>0.0465</v>
       </c>
       <c r="E4">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <f>HYPERLINK("pathways/Glucose_Alanine_Cycle.csv","Glucose-Alanine Cycle")</f>
+        <f>HYPERLINK("pathways/Lysine_Degradation.csv","Lysine Degradation")</f>
         <v>0</v>
       </c>
       <c r="B5">
@@ -454,64 +454,64 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0824</v>
+        <v>0.0905</v>
       </c>
       <c r="E5">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <f>HYPERLINK("pathways/Homocysteine_Degradation.csv","Homocysteine Degradation")</f>
+        <f>HYPERLINK("pathways/Alanine_Metabolism.csv","Alanine Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.0856</v>
+        <v>0.102</v>
       </c>
       <c r="E6">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <f>HYPERLINK("pathways/Alanine_Metabolism.csv","Alanine Metabolism")</f>
+        <f>HYPERLINK("pathways/Glucose_Alanine_Cycle.csv","Glucose-Alanine Cycle")</f>
         <v>0</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.0886</v>
+        <v>0.106</v>
       </c>
       <c r="E7">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <f>HYPERLINK("pathways/Lysine_Degradation.csv","Lysine Degradation")</f>
+        <f>HYPERLINK("pathways/Homocysteine_Degradation.csv","Homocysteine Degradation")</f>
         <v>0</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.0922</v>
+        <v>0.106</v>
       </c>
       <c r="E8">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="9">
@@ -526,82 +526,82 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.105</v>
+        <v>0.113</v>
       </c>
       <c r="E9">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <f>HYPERLINK("pathways/Pyrimidine_Metabolism.csv","Pyrimidine Metabolism")</f>
+        <f>HYPERLINK("pathways/Transfer_of_Acetyl_Groups_into_Mitochondria.csv","Transfer of Acetyl Groups into Mitochondria")</f>
         <v>0</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.135</v>
+        <v>0.139</v>
       </c>
       <c r="E10">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <f>HYPERLINK("pathways/Phenylacetate_Metabolism.csv","Phenylacetate Metabolism")</f>
+        <f>HYPERLINK("pathways/Pyrimidine_Metabolism.csv","Pyrimidine Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.161</v>
+        <v>0.148</v>
       </c>
       <c r="E11">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <f>HYPERLINK("pathways/Transfer_of_Acetyl_Groups_into_Mitochondria.csv","Transfer of Acetyl Groups into Mitochondria")</f>
+        <f>HYPERLINK("pathways/Pyruvate_Metabolism.csv","Pyruvate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.173</v>
+        <v>0.167</v>
       </c>
       <c r="E12">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <f>HYPERLINK("pathways/Pyruvate_Metabolism.csv","Pyruvate Metabolism")</f>
+        <f>HYPERLINK("pathways/Phenylacetate_Metabolism.csv","Phenylacetate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.198</v>
+        <v>0.187</v>
       </c>
       <c r="E13">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="14">
@@ -616,46 +616,46 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.202</v>
+        <v>0.204</v>
       </c>
       <c r="E14">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <f>HYPERLINK("pathways/Ammonia_Recycling.csv","Ammonia Recycling")</f>
+        <f>HYPERLINK("pathways/Citric_Acid_Cycle.csv","Citric Acid Cycle")</f>
         <v>0</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.216</v>
+        <v>0.231</v>
       </c>
       <c r="E15">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <f>HYPERLINK("pathways/Citric_Acid_Cycle.csv","Citric Acid Cycle")</f>
+        <f>HYPERLINK("pathways/Ammonia_Recycling.csv","Ammonia Recycling")</f>
         <v>0</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.242</v>
+        <v>0.253</v>
       </c>
       <c r="E16">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="17">
@@ -670,64 +670,64 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.263</v>
+        <v>0.302</v>
       </c>
       <c r="E17">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <f>HYPERLINK("pathways/Urea_Cycle.csv","Urea Cycle")</f>
+        <f>HYPERLINK("pathways/Arginine_and_Proline_Metabolism.csv","Arginine and Proline Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.281</v>
+        <v>0.305</v>
       </c>
       <c r="E18">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <f>HYPERLINK("pathways/Arginine_and_Proline_Metabolism.csv","Arginine and Proline Metabolism")</f>
+        <f>HYPERLINK("pathways/Fatty_Acid_Biosynthesis.csv","Fatty Acid Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.286</v>
+        <v>0.307</v>
       </c>
       <c r="E19">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <f>HYPERLINK("pathways/Propanoate_Metabolism.csv","Propanoate Metabolism")</f>
+        <f>HYPERLINK("pathways/Porphyrin_Metabolism.csv","Porphyrin Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.294</v>
+        <v>0.315</v>
       </c>
       <c r="E20">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="21">
@@ -742,69 +742,69 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.301</v>
+        <v>0.323</v>
       </c>
       <c r="E21">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <f>HYPERLINK("pathways/Porphyrin_Metabolism.csv","Porphyrin Metabolism")</f>
+        <f>HYPERLINK("pathways/Propanoate_Metabolism.csv","Propanoate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0.304</v>
+        <v>0.327</v>
       </c>
       <c r="E22">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <f>HYPERLINK("pathways/Glutathione_Metabolism.csv","Glutathione Metabolism")</f>
+        <f>HYPERLINK("pathways/Urea_Cycle.csv","Urea Cycle")</f>
         <v>0</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.323</v>
+        <v>0.334</v>
       </c>
       <c r="E23">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <f>HYPERLINK("pathways/Glutamate_Metabolism.csv","Glutamate Metabolism")</f>
+        <f>HYPERLINK("pathways/Phospholipid_Biosynthesis.csv","Phospholipid Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.323</v>
+        <v>0.367</v>
       </c>
       <c r="E24">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <f>HYPERLINK("pathways/Phospholipid_Biosynthesis.csv","Phospholipid Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Glutathione_Metabolism.csv","Glutathione Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B25">
@@ -814,51 +814,51 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.327</v>
+        <v>0.372</v>
       </c>
       <c r="E25">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <f>HYPERLINK("pathways/Fatty_Acid_Biosynthesis.csv","Fatty Acid Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Glutamate_Metabolism.csv","Glutamate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0.329</v>
+        <v>0.379</v>
       </c>
       <c r="E26">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <f>HYPERLINK("pathways/Caffeine_Metabolism.csv","Caffeine Metabolism")</f>
+        <f>HYPERLINK("pathways/Amino_Sugar_Metabolism.csv","Amino Sugar Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.353</v>
+        <v>0.408</v>
       </c>
       <c r="E27">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <f>HYPERLINK("pathways/Alpha_Linolenic_Acid_and_Linoleic_Acid_Metabolism.csv","Alpha Linolenic Acid and Linoleic Acid Metabolism")</f>
+        <f>HYPERLINK("pathways/Caffeine_Metabolism.csv","Caffeine Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B28">
@@ -868,46 +868,46 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.363</v>
+        <v>0.418</v>
       </c>
       <c r="E28">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <f>HYPERLINK("pathways/Amino_Sugar_Metabolism.csv","Amino Sugar Metabolism")</f>
+        <f>HYPERLINK("pathways/Gluconeogenesis.csv","Gluconeogenesis")</f>
         <v>0</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.396</v>
+        <v>0.423</v>
       </c>
       <c r="E29">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <f>HYPERLINK("pathways/Malate_Aspartate_Shuttle.csv","Malate-Aspartate Shuttle")</f>
+        <f>HYPERLINK("pathways/Alpha_Linolenic_Acid_and_Linoleic_Acid_Metabolism.csv","Alpha Linolenic Acid and Linoleic Acid Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0.4</v>
+        <v>0.423</v>
       </c>
       <c r="E30">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="31">
@@ -922,28 +922,28 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0.407</v>
+        <v>0.437</v>
       </c>
       <c r="E31">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <f>HYPERLINK("pathways/Gluconeogenesis.csv","Gluconeogenesis")</f>
+        <f>HYPERLINK("pathways/Malate_Aspartate_Shuttle.csv","Malate-Aspartate Shuttle")</f>
         <v>0</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.412</v>
+        <v>0.456</v>
       </c>
       <c r="E32">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="33">
@@ -958,46 +958,46 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0.435</v>
+        <v>0.478</v>
       </c>
       <c r="E33">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <f>HYPERLINK("pathways/Catecholamine_Biosynthesis.csv","Catecholamine Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Galactose_Metabolism.csv","Galactose Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D34">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="E34">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <f>HYPERLINK("pathways/Pantothenate_and_CoA_Biosynthesis.csv","Pantothenate and CoA Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Catecholamine_Biosynthesis.csv","Catecholamine Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D35">
-        <v>0.496</v>
+        <v>0.526</v>
       </c>
       <c r="E35">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="36">
@@ -1012,28 +1012,28 @@
         <v>-1</v>
       </c>
       <c r="D36">
-        <v>0.51</v>
+        <v>0.534</v>
       </c>
       <c r="E36">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <f>HYPERLINK("pathways/Cysteine_Metabolism.csv","Cysteine Metabolism")</f>
+        <f>HYPERLINK("pathways/Pantothenate_and_CoA_Biosynthesis.csv","Pantothenate and CoA Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>-1</v>
       </c>
       <c r="D37">
-        <v>0.526</v>
+        <v>0.544</v>
       </c>
       <c r="E37">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="38">
@@ -1048,46 +1048,46 @@
         <v>-1</v>
       </c>
       <c r="D38">
-        <v>0.54</v>
+        <v>0.565</v>
       </c>
       <c r="E38">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <f>HYPERLINK("pathways/Galactose_Metabolism.csv","Galactose Metabolism")</f>
+        <f>HYPERLINK("pathways/Cysteine_Metabolism.csv","Cysteine Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>-1</v>
       </c>
       <c r="D39">
-        <v>0.546</v>
+        <v>0.578</v>
       </c>
       <c r="E39">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <f>HYPERLINK("pathways/Fatty_acid_Metabolism.csv","Fatty acid Metabolism")</f>
+        <f>HYPERLINK("pathways/Fructose_and_Mannose_Degradation.csv","Fructose and Mannose Degradation")</f>
         <v>0</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>-1</v>
       </c>
       <c r="D40">
-        <v>0.547</v>
+        <v>0.578</v>
       </c>
       <c r="E40">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="41">
@@ -1102,82 +1102,82 @@
         <v>-1</v>
       </c>
       <c r="D41">
-        <v>0.578</v>
+        <v>0.589</v>
       </c>
       <c r="E41">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <f>HYPERLINK("pathways/Retinol_Metabolism.csv","Retinol Metabolism")</f>
+        <f>HYPERLINK("pathways/Fatty_acid_Metabolism.csv","Fatty acid Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>-1</v>
       </c>
       <c r="D42">
-        <v>0.582</v>
+        <v>0.597</v>
       </c>
       <c r="E42">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <f>HYPERLINK("pathways/Mitochondrial_Electron_Transport_Chain.csv","Mitochondrial Electron Transport Chain")</f>
+        <f>HYPERLINK("pathways/Starch_and_Sucrose_Metabolism.csv","Starch and Sucrose Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>-1</v>
       </c>
       <c r="D43">
-        <v>0.615</v>
+        <v>0.614</v>
       </c>
       <c r="E43">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <f>HYPERLINK("pathways/Starch_and_Sucrose_Metabolism.csv","Starch and Sucrose Metabolism")</f>
+        <f>HYPERLINK("pathways/Mitochondrial_Electron_Transport_Chain.csv","Mitochondrial Electron Transport Chain")</f>
         <v>0</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <v>-1</v>
       </c>
       <c r="D44">
-        <v>0.618</v>
+        <v>0.616</v>
       </c>
       <c r="E44">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <f>HYPERLINK("pathways/Fructose_and_Mannose_Degradation.csv","Fructose and Mannose Degradation")</f>
+        <f>HYPERLINK("pathways/Retinol_Metabolism.csv","Retinol Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C45">
         <v>-1</v>
       </c>
       <c r="D45">
-        <v>0.645</v>
+        <v>0.635</v>
       </c>
       <c r="E45">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="46">
@@ -1192,82 +1192,82 @@
         <v>-1</v>
       </c>
       <c r="D46">
-        <v>0.661</v>
+        <v>0.643</v>
       </c>
       <c r="E46">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <f>HYPERLINK("pathways/Bile_Acid_Biosynthesis.csv","Bile Acid Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Tryptophan_Metabolism.csv","Tryptophan Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>-1</v>
       </c>
       <c r="D47">
-        <v>0.663</v>
+        <v>0.647</v>
       </c>
       <c r="E47">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <f>HYPERLINK("pathways/Vitamin_B6_Metabolism.csv","Vitamin B6 Metabolism")</f>
+        <f>HYPERLINK("pathways/Bile_Acid_Biosynthesis.csv","Bile Acid Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C48">
         <v>-1</v>
       </c>
       <c r="D48">
-        <v>0.689</v>
+        <v>0.675</v>
       </c>
       <c r="E48">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <f>HYPERLINK("pathways/Tryptophan_Metabolism.csv","Tryptophan Metabolism")</f>
+        <f>HYPERLINK("pathways/Steroid_Biosynthesis.csv","Steroid Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>-1</v>
       </c>
       <c r="D49">
-        <v>0.692</v>
+        <v>0.709</v>
       </c>
       <c r="E49">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <f>HYPERLINK("pathways/Aspartate_Metabolism.csv","Aspartate Metabolism")</f>
+        <f>HYPERLINK("pathways/Lactose_Synthesis.csv","Lactose Synthesis")</f>
         <v>0</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <v>-1</v>
       </c>
       <c r="D50">
-        <v>0.707</v>
+        <v>0.712</v>
       </c>
       <c r="E50">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="51">
@@ -1282,69 +1282,69 @@
         <v>-1</v>
       </c>
       <c r="D51">
-        <v>0.707</v>
+        <v>0.714</v>
       </c>
       <c r="E51">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <f>HYPERLINK("pathways/Thyroid_hormone_synthesis.csv","Thyroid hormone synthesis")</f>
+        <f>HYPERLINK("pathways/Phosphatidylinositol_Phosphate_Metabolism.csv","Phosphatidylinositol Phosphate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>-1</v>
       </c>
       <c r="D52">
-        <v>0.708</v>
+        <v>0.716</v>
       </c>
       <c r="E52">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <f>HYPERLINK("pathways/Steroidogenesis.csv","Steroidogenesis")</f>
+        <f>HYPERLINK("pathways/Aspartate_Metabolism.csv","Aspartate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C53">
         <v>-1</v>
       </c>
       <c r="D53">
-        <v>0.715</v>
+        <v>0.724</v>
       </c>
       <c r="E53">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <f>HYPERLINK("pathways/Lactose_Synthesis.csv","Lactose Synthesis")</f>
+        <f>HYPERLINK("pathways/Thyroid_hormone_synthesis.csv","Thyroid hormone synthesis")</f>
         <v>0</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>-1</v>
       </c>
       <c r="D54">
-        <v>0.719</v>
+        <v>0.73</v>
       </c>
       <c r="E54">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <f>HYPERLINK("pathways/Phosphatidylinositol_Phosphate_Metabolism.csv","Phosphatidylinositol Phosphate Metabolism")</f>
+        <f>HYPERLINK("pathways/Vitamin_B6_Metabolism.csv","Vitamin B6 Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B55">
@@ -1354,51 +1354,51 @@
         <v>-1</v>
       </c>
       <c r="D55">
-        <v>0.755</v>
+        <v>0.733</v>
       </c>
       <c r="E55">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <f>HYPERLINK("pathways/Riboflavin_Metabolism.csv","Riboflavin Metabolism")</f>
+        <f>HYPERLINK("pathways/Steroidogenesis.csv","Steroidogenesis")</f>
         <v>0</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>-1</v>
       </c>
       <c r="D56">
-        <v>0.758</v>
+        <v>0.737</v>
       </c>
       <c r="E56">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <f>HYPERLINK("pathways/Taurine_and_Hypotaurine_Metabolism.csv","Taurine and Hypotaurine Metabolism")</f>
+        <f>HYPERLINK("pathways/Purine_Metabolism.csv","Purine Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C57">
         <v>-1</v>
       </c>
       <c r="D57">
-        <v>0.77</v>
+        <v>0.739</v>
       </c>
       <c r="E57">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <f>HYPERLINK("pathways/Degradation_of_Superoxides.csv","Degradation of Superoxides")</f>
+        <f>HYPERLINK("pathways/Riboflavin_Metabolism.csv","Riboflavin Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B58">
@@ -1408,15 +1408,15 @@
         <v>-1</v>
       </c>
       <c r="D58">
-        <v>0.771</v>
+        <v>0.756</v>
       </c>
       <c r="E58">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <f>HYPERLINK("pathways/Spermidine_and_Spermine_Biosynthesis.csv","Spermidine and Spermine Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Degradation_of_Superoxides.csv","Degradation of Superoxides")</f>
         <v>0</v>
       </c>
       <c r="B59">
@@ -1426,10 +1426,10 @@
         <v>-1</v>
       </c>
       <c r="D59">
-        <v>0.772</v>
+        <v>0.759</v>
       </c>
       <c r="E59">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="60">
@@ -1444,51 +1444,51 @@
         <v>-1</v>
       </c>
       <c r="D60">
-        <v>0.782</v>
+        <v>0.759</v>
       </c>
       <c r="E60">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <f>HYPERLINK("pathways/Glycolysis.csv","Glycolysis")</f>
+        <f>HYPERLINK("pathways/Taurine_and_Hypotaurine_Metabolism.csv","Taurine and Hypotaurine Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>-1</v>
       </c>
       <c r="D61">
-        <v>0.783</v>
+        <v>0.762</v>
       </c>
       <c r="E61">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <f>HYPERLINK("pathways/Purine_Metabolism.csv","Purine Metabolism")</f>
+        <f>HYPERLINK("pathways/Spermidine_and_Spermine_Biosynthesis.csv","Spermidine and Spermine Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B62">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C62">
         <v>-1</v>
       </c>
       <c r="D62">
-        <v>0.798</v>
+        <v>0.77</v>
       </c>
       <c r="E62">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <f>HYPERLINK("pathways/Butyrate_Metabolism.csv","Butyrate Metabolism")</f>
+        <f>HYPERLINK("pathways/Ethanol_Degradation.csv","Ethanol Degradation")</f>
         <v>0</v>
       </c>
       <c r="B63">
@@ -1498,15 +1498,15 @@
         <v>-1</v>
       </c>
       <c r="D63">
-        <v>0.8040000000000001</v>
+        <v>0.779</v>
       </c>
       <c r="E63">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <f>HYPERLINK("pathways/Ethanol_Degradation.csv","Ethanol Degradation")</f>
+        <f>HYPERLINK("pathways/Butyrate_Metabolism.csv","Butyrate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B64">
@@ -1516,10 +1516,10 @@
         <v>-1</v>
       </c>
       <c r="D64">
-        <v>0.8040000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="E64">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="65">
@@ -1534,33 +1534,33 @@
         <v>-1</v>
       </c>
       <c r="D65">
-        <v>0.8040000000000001</v>
+        <v>0.785</v>
       </c>
       <c r="E65">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <f>HYPERLINK("pathways/Mitochondrial_Beta_Oxidation_of_Short_Chain_Saturated_Fatty_Acids.csv","Mitochondrial Beta-Oxidation of Short Chain Saturated Fatty Acids")</f>
+        <f>HYPERLINK("pathways/Glycolysis.csv","Glycolysis")</f>
         <v>0</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C66">
         <v>-1</v>
       </c>
       <c r="D66">
-        <v>0.8040000000000001</v>
+        <v>0.787</v>
       </c>
       <c r="E66">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <f>HYPERLINK("pathways/Steroid_Biosynthesis.csv","Steroid Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Mitochondrial_Beta_Oxidation_of_Short_Chain_Saturated_Fatty_Acids.csv","Mitochondrial Beta-Oxidation of Short Chain Saturated Fatty Acids")</f>
         <v>0</v>
       </c>
       <c r="B67">
@@ -1570,10 +1570,10 @@
         <v>-1</v>
       </c>
       <c r="D67">
-        <v>0.8040000000000001</v>
+        <v>0.793</v>
       </c>
       <c r="E67">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="68">
@@ -1588,46 +1588,46 @@
         <v>-1</v>
       </c>
       <c r="D68">
-        <v>0.821</v>
+        <v>0.794</v>
       </c>
       <c r="E68">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <f>HYPERLINK("pathways/Nicotinate_and_Nicotinamide_Metabolism.csv","Nicotinate and Nicotinamide Metabolism")</f>
+        <f>HYPERLINK("pathways/Androgen_and_Estrogen_Metabolism.csv","Androgen and Estrogen Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C69">
         <v>-1</v>
       </c>
       <c r="D69">
-        <v>0.826</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="E69">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <f>HYPERLINK("pathways/Androgen_and_Estrogen_Metabolism.csv","Androgen and Estrogen Metabolism")</f>
+        <f>HYPERLINK("pathways/Nicotinate_and_Nicotinamide_Metabolism.csv","Nicotinate and Nicotinamide Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C70">
         <v>-1</v>
       </c>
       <c r="D70">
-        <v>0.837</v>
+        <v>0.82</v>
       </c>
       <c r="E70">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="71">
@@ -1642,10 +1642,10 @@
         <v>-1</v>
       </c>
       <c r="D71">
-        <v>0.837</v>
+        <v>0.824</v>
       </c>
       <c r="E71">
-        <v>0.849</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="72">
@@ -1660,10 +1660,10 @@
         <v>-1</v>
       </c>
       <c r="D72">
-        <v>0.862</v>
+        <v>0.869</v>
       </c>
       <c r="E72">
-        <v>0.862</v>
+        <v>0.869</v>
       </c>
     </row>
   </sheetData>

--- a/results/hba1c_cameraPR/hba1c_cameraPR.xlsx
+++ b/results/hba1c_cameraPR/hba1c_cameraPR.xlsx
@@ -400,10 +400,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.00598</v>
+        <v>0.00521</v>
       </c>
       <c r="E2">
-        <v>0.226</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="3">
@@ -418,10 +418,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.00637</v>
+        <v>0.00787</v>
       </c>
       <c r="E3">
-        <v>0.226</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="4">
@@ -436,15 +436,15 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.0465</v>
+        <v>0.0416</v>
       </c>
       <c r="E4">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <f>HYPERLINK("pathways/Lysine_Degradation.csv","Lysine Degradation")</f>
+        <f>HYPERLINK("pathways/Glucose_Alanine_Cycle.csv","Glucose-Alanine Cycle")</f>
         <v>0</v>
       </c>
       <c r="B5">
@@ -454,64 +454,64 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0905</v>
+        <v>0.0824</v>
       </c>
       <c r="E5">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <f>HYPERLINK("pathways/Alanine_Metabolism.csv","Alanine Metabolism")</f>
+        <f>HYPERLINK("pathways/Homocysteine_Degradation.csv","Homocysteine Degradation")</f>
         <v>0</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.102</v>
+        <v>0.0856</v>
       </c>
       <c r="E6">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <f>HYPERLINK("pathways/Glucose_Alanine_Cycle.csv","Glucose-Alanine Cycle")</f>
+        <f>HYPERLINK("pathways/Alanine_Metabolism.csv","Alanine Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.106</v>
+        <v>0.0886</v>
       </c>
       <c r="E7">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <f>HYPERLINK("pathways/Homocysteine_Degradation.csv","Homocysteine Degradation")</f>
+        <f>HYPERLINK("pathways/Lysine_Degradation.csv","Lysine Degradation")</f>
         <v>0</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.106</v>
+        <v>0.0922</v>
       </c>
       <c r="E8">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="9">
@@ -526,82 +526,82 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.113</v>
+        <v>0.105</v>
       </c>
       <c r="E9">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <f>HYPERLINK("pathways/Transfer_of_Acetyl_Groups_into_Mitochondria.csv","Transfer of Acetyl Groups into Mitochondria")</f>
+        <f>HYPERLINK("pathways/Pyrimidine_Metabolism.csv","Pyrimidine Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.139</v>
+        <v>0.135</v>
       </c>
       <c r="E10">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <f>HYPERLINK("pathways/Pyrimidine_Metabolism.csv","Pyrimidine Metabolism")</f>
+        <f>HYPERLINK("pathways/Phenylacetate_Metabolism.csv","Phenylacetate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.148</v>
+        <v>0.161</v>
       </c>
       <c r="E11">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <f>HYPERLINK("pathways/Pyruvate_Metabolism.csv","Pyruvate Metabolism")</f>
+        <f>HYPERLINK("pathways/Transfer_of_Acetyl_Groups_into_Mitochondria.csv","Transfer of Acetyl Groups into Mitochondria")</f>
         <v>0</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.167</v>
+        <v>0.173</v>
       </c>
       <c r="E12">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <f>HYPERLINK("pathways/Phenylacetate_Metabolism.csv","Phenylacetate Metabolism")</f>
+        <f>HYPERLINK("pathways/Pyruvate_Metabolism.csv","Pyruvate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.187</v>
+        <v>0.198</v>
       </c>
       <c r="E13">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="14">
@@ -616,46 +616,46 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.204</v>
+        <v>0.202</v>
       </c>
       <c r="E14">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <f>HYPERLINK("pathways/Citric_Acid_Cycle.csv","Citric Acid Cycle")</f>
+        <f>HYPERLINK("pathways/Ammonia_Recycling.csv","Ammonia Recycling")</f>
         <v>0</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.231</v>
+        <v>0.216</v>
       </c>
       <c r="E15">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <f>HYPERLINK("pathways/Ammonia_Recycling.csv","Ammonia Recycling")</f>
+        <f>HYPERLINK("pathways/Citric_Acid_Cycle.csv","Citric Acid Cycle")</f>
         <v>0</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.253</v>
+        <v>0.242</v>
       </c>
       <c r="E16">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="17">
@@ -670,64 +670,64 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.302</v>
+        <v>0.263</v>
       </c>
       <c r="E17">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <f>HYPERLINK("pathways/Arginine_and_Proline_Metabolism.csv","Arginine and Proline Metabolism")</f>
+        <f>HYPERLINK("pathways/Urea_Cycle.csv","Urea Cycle")</f>
         <v>0</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.305</v>
+        <v>0.281</v>
       </c>
       <c r="E18">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <f>HYPERLINK("pathways/Fatty_Acid_Biosynthesis.csv","Fatty Acid Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Arginine_and_Proline_Metabolism.csv","Arginine and Proline Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.307</v>
+        <v>0.286</v>
       </c>
       <c r="E19">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <f>HYPERLINK("pathways/Porphyrin_Metabolism.csv","Porphyrin Metabolism")</f>
+        <f>HYPERLINK("pathways/Propanoate_Metabolism.csv","Propanoate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.315</v>
+        <v>0.294</v>
       </c>
       <c r="E20">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="21">
@@ -742,69 +742,69 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.323</v>
+        <v>0.301</v>
       </c>
       <c r="E21">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <f>HYPERLINK("pathways/Propanoate_Metabolism.csv","Propanoate Metabolism")</f>
+        <f>HYPERLINK("pathways/Porphyrin_Metabolism.csv","Porphyrin Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0.327</v>
+        <v>0.304</v>
       </c>
       <c r="E22">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <f>HYPERLINK("pathways/Urea_Cycle.csv","Urea Cycle")</f>
+        <f>HYPERLINK("pathways/Glutathione_Metabolism.csv","Glutathione Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.334</v>
+        <v>0.323</v>
       </c>
       <c r="E23">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <f>HYPERLINK("pathways/Phospholipid_Biosynthesis.csv","Phospholipid Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Glutamate_Metabolism.csv","Glutamate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.367</v>
+        <v>0.323</v>
       </c>
       <c r="E24">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <f>HYPERLINK("pathways/Glutathione_Metabolism.csv","Glutathione Metabolism")</f>
+        <f>HYPERLINK("pathways/Phospholipid_Biosynthesis.csv","Phospholipid Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B25">
@@ -814,51 +814,51 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.372</v>
+        <v>0.327</v>
       </c>
       <c r="E25">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <f>HYPERLINK("pathways/Glutamate_Metabolism.csv","Glutamate Metabolism")</f>
+        <f>HYPERLINK("pathways/Fatty_Acid_Biosynthesis.csv","Fatty Acid Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0.379</v>
+        <v>0.329</v>
       </c>
       <c r="E26">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <f>HYPERLINK("pathways/Amino_Sugar_Metabolism.csv","Amino Sugar Metabolism")</f>
+        <f>HYPERLINK("pathways/Caffeine_Metabolism.csv","Caffeine Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.408</v>
+        <v>0.353</v>
       </c>
       <c r="E27">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <f>HYPERLINK("pathways/Caffeine_Metabolism.csv","Caffeine Metabolism")</f>
+        <f>HYPERLINK("pathways/Alpha_Linolenic_Acid_and_Linoleic_Acid_Metabolism.csv","Alpha Linolenic Acid and Linoleic Acid Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B28">
@@ -868,46 +868,46 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.418</v>
+        <v>0.363</v>
       </c>
       <c r="E28">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <f>HYPERLINK("pathways/Gluconeogenesis.csv","Gluconeogenesis")</f>
+        <f>HYPERLINK("pathways/Amino_Sugar_Metabolism.csv","Amino Sugar Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.423</v>
+        <v>0.396</v>
       </c>
       <c r="E29">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <f>HYPERLINK("pathways/Alpha_Linolenic_Acid_and_Linoleic_Acid_Metabolism.csv","Alpha Linolenic Acid and Linoleic Acid Metabolism")</f>
+        <f>HYPERLINK("pathways/Malate_Aspartate_Shuttle.csv","Malate-Aspartate Shuttle")</f>
         <v>0</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0.423</v>
+        <v>0.4</v>
       </c>
       <c r="E30">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="31">
@@ -922,28 +922,28 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0.437</v>
+        <v>0.407</v>
       </c>
       <c r="E31">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <f>HYPERLINK("pathways/Malate_Aspartate_Shuttle.csv","Malate-Aspartate Shuttle")</f>
+        <f>HYPERLINK("pathways/Gluconeogenesis.csv","Gluconeogenesis")</f>
         <v>0</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.456</v>
+        <v>0.412</v>
       </c>
       <c r="E32">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="33">
@@ -958,46 +958,46 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0.478</v>
+        <v>0.435</v>
       </c>
       <c r="E33">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <f>HYPERLINK("pathways/Galactose_Metabolism.csv","Galactose Metabolism")</f>
+        <f>HYPERLINK("pathways/Catecholamine_Biosynthesis.csv","Catecholamine Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="E34">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <f>HYPERLINK("pathways/Catecholamine_Biosynthesis.csv","Catecholamine Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Pantothenate_and_CoA_Biosynthesis.csv","Pantothenate and CoA Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0.526</v>
+        <v>0.496</v>
       </c>
       <c r="E35">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="36">
@@ -1012,28 +1012,28 @@
         <v>-1</v>
       </c>
       <c r="D36">
-        <v>0.534</v>
+        <v>0.51</v>
       </c>
       <c r="E36">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <f>HYPERLINK("pathways/Pantothenate_and_CoA_Biosynthesis.csv","Pantothenate and CoA Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Cysteine_Metabolism.csv","Cysteine Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>-1</v>
       </c>
       <c r="D37">
-        <v>0.544</v>
+        <v>0.526</v>
       </c>
       <c r="E37">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="38">
@@ -1048,46 +1048,46 @@
         <v>-1</v>
       </c>
       <c r="D38">
-        <v>0.565</v>
+        <v>0.54</v>
       </c>
       <c r="E38">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <f>HYPERLINK("pathways/Cysteine_Metabolism.csv","Cysteine Metabolism")</f>
+        <f>HYPERLINK("pathways/Galactose_Metabolism.csv","Galactose Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>-1</v>
       </c>
       <c r="D39">
-        <v>0.578</v>
+        <v>0.546</v>
       </c>
       <c r="E39">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <f>HYPERLINK("pathways/Fructose_and_Mannose_Degradation.csv","Fructose and Mannose Degradation")</f>
+        <f>HYPERLINK("pathways/Fatty_acid_Metabolism.csv","Fatty acid Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>-1</v>
       </c>
       <c r="D40">
-        <v>0.578</v>
+        <v>0.547</v>
       </c>
       <c r="E40">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="41">
@@ -1102,82 +1102,82 @@
         <v>-1</v>
       </c>
       <c r="D41">
-        <v>0.589</v>
+        <v>0.578</v>
       </c>
       <c r="E41">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <f>HYPERLINK("pathways/Fatty_acid_Metabolism.csv","Fatty acid Metabolism")</f>
+        <f>HYPERLINK("pathways/Retinol_Metabolism.csv","Retinol Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C42">
         <v>-1</v>
       </c>
       <c r="D42">
-        <v>0.597</v>
+        <v>0.582</v>
       </c>
       <c r="E42">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <f>HYPERLINK("pathways/Starch_and_Sucrose_Metabolism.csv","Starch and Sucrose Metabolism")</f>
+        <f>HYPERLINK("pathways/Mitochondrial_Electron_Transport_Chain.csv","Mitochondrial Electron Transport Chain")</f>
         <v>0</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43">
         <v>-1</v>
       </c>
       <c r="D43">
-        <v>0.614</v>
+        <v>0.615</v>
       </c>
       <c r="E43">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <f>HYPERLINK("pathways/Mitochondrial_Electron_Transport_Chain.csv","Mitochondrial Electron Transport Chain")</f>
+        <f>HYPERLINK("pathways/Starch_and_Sucrose_Metabolism.csv","Starch and Sucrose Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <v>-1</v>
       </c>
       <c r="D44">
-        <v>0.616</v>
+        <v>0.618</v>
       </c>
       <c r="E44">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <f>HYPERLINK("pathways/Retinol_Metabolism.csv","Retinol Metabolism")</f>
+        <f>HYPERLINK("pathways/Fructose_and_Mannose_Degradation.csv","Fructose and Mannose Degradation")</f>
         <v>0</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>-1</v>
       </c>
       <c r="D45">
-        <v>0.635</v>
+        <v>0.645</v>
       </c>
       <c r="E45">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="46">
@@ -1192,82 +1192,82 @@
         <v>-1</v>
       </c>
       <c r="D46">
-        <v>0.643</v>
+        <v>0.661</v>
       </c>
       <c r="E46">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <f>HYPERLINK("pathways/Tryptophan_Metabolism.csv","Tryptophan Metabolism")</f>
+        <f>HYPERLINK("pathways/Bile_Acid_Biosynthesis.csv","Bile Acid Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C47">
         <v>-1</v>
       </c>
       <c r="D47">
-        <v>0.647</v>
+        <v>0.663</v>
       </c>
       <c r="E47">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <f>HYPERLINK("pathways/Bile_Acid_Biosynthesis.csv","Bile Acid Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Vitamin_B6_Metabolism.csv","Vitamin B6 Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>-1</v>
       </c>
       <c r="D48">
-        <v>0.675</v>
+        <v>0.689</v>
       </c>
       <c r="E48">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <f>HYPERLINK("pathways/Steroid_Biosynthesis.csv","Steroid Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Tryptophan_Metabolism.csv","Tryptophan Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>-1</v>
       </c>
       <c r="D49">
-        <v>0.709</v>
+        <v>0.692</v>
       </c>
       <c r="E49">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <f>HYPERLINK("pathways/Lactose_Synthesis.csv","Lactose Synthesis")</f>
+        <f>HYPERLINK("pathways/Aspartate_Metabolism.csv","Aspartate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C50">
         <v>-1</v>
       </c>
       <c r="D50">
-        <v>0.712</v>
+        <v>0.707</v>
       </c>
       <c r="E50">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="51">
@@ -1282,69 +1282,69 @@
         <v>-1</v>
       </c>
       <c r="D51">
-        <v>0.714</v>
+        <v>0.707</v>
       </c>
       <c r="E51">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <f>HYPERLINK("pathways/Phosphatidylinositol_Phosphate_Metabolism.csv","Phosphatidylinositol Phosphate Metabolism")</f>
+        <f>HYPERLINK("pathways/Thyroid_hormone_synthesis.csv","Thyroid hormone synthesis")</f>
         <v>0</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>-1</v>
       </c>
       <c r="D52">
-        <v>0.716</v>
+        <v>0.708</v>
       </c>
       <c r="E52">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <f>HYPERLINK("pathways/Aspartate_Metabolism.csv","Aspartate Metabolism")</f>
+        <f>HYPERLINK("pathways/Steroidogenesis.csv","Steroidogenesis")</f>
         <v>0</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>-1</v>
       </c>
       <c r="D53">
-        <v>0.724</v>
+        <v>0.715</v>
       </c>
       <c r="E53">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <f>HYPERLINK("pathways/Thyroid_hormone_synthesis.csv","Thyroid hormone synthesis")</f>
+        <f>HYPERLINK("pathways/Lactose_Synthesis.csv","Lactose Synthesis")</f>
         <v>0</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>-1</v>
       </c>
       <c r="D54">
-        <v>0.73</v>
+        <v>0.719</v>
       </c>
       <c r="E54">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <f>HYPERLINK("pathways/Vitamin_B6_Metabolism.csv","Vitamin B6 Metabolism")</f>
+        <f>HYPERLINK("pathways/Phosphatidylinositol_Phosphate_Metabolism.csv","Phosphatidylinositol Phosphate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B55">
@@ -1354,51 +1354,51 @@
         <v>-1</v>
       </c>
       <c r="D55">
-        <v>0.733</v>
+        <v>0.755</v>
       </c>
       <c r="E55">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <f>HYPERLINK("pathways/Steroidogenesis.csv","Steroidogenesis")</f>
+        <f>HYPERLINK("pathways/Riboflavin_Metabolism.csv","Riboflavin Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <v>-1</v>
       </c>
       <c r="D56">
-        <v>0.737</v>
+        <v>0.758</v>
       </c>
       <c r="E56">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <f>HYPERLINK("pathways/Purine_Metabolism.csv","Purine Metabolism")</f>
+        <f>HYPERLINK("pathways/Taurine_and_Hypotaurine_Metabolism.csv","Taurine and Hypotaurine Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C57">
         <v>-1</v>
       </c>
       <c r="D57">
-        <v>0.739</v>
+        <v>0.77</v>
       </c>
       <c r="E57">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <f>HYPERLINK("pathways/Riboflavin_Metabolism.csv","Riboflavin Metabolism")</f>
+        <f>HYPERLINK("pathways/Degradation_of_Superoxides.csv","Degradation of Superoxides")</f>
         <v>0</v>
       </c>
       <c r="B58">
@@ -1408,15 +1408,15 @@
         <v>-1</v>
       </c>
       <c r="D58">
-        <v>0.756</v>
+        <v>0.771</v>
       </c>
       <c r="E58">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <f>HYPERLINK("pathways/Degradation_of_Superoxides.csv","Degradation of Superoxides")</f>
+        <f>HYPERLINK("pathways/Spermidine_and_Spermine_Biosynthesis.csv","Spermidine and Spermine Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B59">
@@ -1426,10 +1426,10 @@
         <v>-1</v>
       </c>
       <c r="D59">
-        <v>0.759</v>
+        <v>0.772</v>
       </c>
       <c r="E59">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="60">
@@ -1444,51 +1444,51 @@
         <v>-1</v>
       </c>
       <c r="D60">
-        <v>0.759</v>
+        <v>0.782</v>
       </c>
       <c r="E60">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <f>HYPERLINK("pathways/Taurine_and_Hypotaurine_Metabolism.csv","Taurine and Hypotaurine Metabolism")</f>
+        <f>HYPERLINK("pathways/Glycolysis.csv","Glycolysis")</f>
         <v>0</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C61">
         <v>-1</v>
       </c>
       <c r="D61">
-        <v>0.762</v>
+        <v>0.783</v>
       </c>
       <c r="E61">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <f>HYPERLINK("pathways/Spermidine_and_Spermine_Biosynthesis.csv","Spermidine and Spermine Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Purine_Metabolism.csv","Purine Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C62">
         <v>-1</v>
       </c>
       <c r="D62">
-        <v>0.77</v>
+        <v>0.798</v>
       </c>
       <c r="E62">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <f>HYPERLINK("pathways/Ethanol_Degradation.csv","Ethanol Degradation")</f>
+        <f>HYPERLINK("pathways/Butyrate_Metabolism.csv","Butyrate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B63">
@@ -1498,15 +1498,15 @@
         <v>-1</v>
       </c>
       <c r="D63">
-        <v>0.779</v>
+        <v>0.8040000000000001</v>
       </c>
       <c r="E63">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <f>HYPERLINK("pathways/Butyrate_Metabolism.csv","Butyrate Metabolism")</f>
+        <f>HYPERLINK("pathways/Ethanol_Degradation.csv","Ethanol Degradation")</f>
         <v>0</v>
       </c>
       <c r="B64">
@@ -1516,10 +1516,10 @@
         <v>-1</v>
       </c>
       <c r="D64">
-        <v>0.78</v>
+        <v>0.8040000000000001</v>
       </c>
       <c r="E64">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="65">
@@ -1534,33 +1534,33 @@
         <v>-1</v>
       </c>
       <c r="D65">
-        <v>0.785</v>
+        <v>0.8040000000000001</v>
       </c>
       <c r="E65">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <f>HYPERLINK("pathways/Glycolysis.csv","Glycolysis")</f>
+        <f>HYPERLINK("pathways/Mitochondrial_Beta_Oxidation_of_Short_Chain_Saturated_Fatty_Acids.csv","Mitochondrial Beta-Oxidation of Short Chain Saturated Fatty Acids")</f>
         <v>0</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <v>-1</v>
       </c>
       <c r="D66">
-        <v>0.787</v>
+        <v>0.8040000000000001</v>
       </c>
       <c r="E66">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <f>HYPERLINK("pathways/Mitochondrial_Beta_Oxidation_of_Short_Chain_Saturated_Fatty_Acids.csv","Mitochondrial Beta-Oxidation of Short Chain Saturated Fatty Acids")</f>
+        <f>HYPERLINK("pathways/Steroid_Biosynthesis.csv","Steroid Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B67">
@@ -1570,10 +1570,10 @@
         <v>-1</v>
       </c>
       <c r="D67">
-        <v>0.793</v>
+        <v>0.8040000000000001</v>
       </c>
       <c r="E67">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="68">
@@ -1588,46 +1588,46 @@
         <v>-1</v>
       </c>
       <c r="D68">
-        <v>0.794</v>
+        <v>0.821</v>
       </c>
       <c r="E68">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <f>HYPERLINK("pathways/Androgen_and_Estrogen_Metabolism.csv","Androgen and Estrogen Metabolism")</f>
+        <f>HYPERLINK("pathways/Nicotinate_and_Nicotinamide_Metabolism.csv","Nicotinate and Nicotinamide Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C69">
         <v>-1</v>
       </c>
       <c r="D69">
-        <v>0.8070000000000001</v>
+        <v>0.826</v>
       </c>
       <c r="E69">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <f>HYPERLINK("pathways/Nicotinate_and_Nicotinamide_Metabolism.csv","Nicotinate and Nicotinamide Metabolism")</f>
+        <f>HYPERLINK("pathways/Androgen_and_Estrogen_Metabolism.csv","Androgen and Estrogen Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C70">
         <v>-1</v>
       </c>
       <c r="D70">
-        <v>0.82</v>
+        <v>0.837</v>
       </c>
       <c r="E70">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="71">
@@ -1642,10 +1642,10 @@
         <v>-1</v>
       </c>
       <c r="D71">
-        <v>0.824</v>
+        <v>0.837</v>
       </c>
       <c r="E71">
-        <v>0.836</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="72">
@@ -1660,10 +1660,10 @@
         <v>-1</v>
       </c>
       <c r="D72">
-        <v>0.869</v>
+        <v>0.862</v>
       </c>
       <c r="E72">
-        <v>0.869</v>
+        <v>0.862</v>
       </c>
     </row>
   </sheetData>

--- a/results/hba1c_cameraPR/hba1c_cameraPR.xlsx
+++ b/results/hba1c_cameraPR/hba1c_cameraPR.xlsx
@@ -400,10 +400,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.00521</v>
+        <v>0.0049</v>
       </c>
       <c r="E2">
-        <v>0.279</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
@@ -418,10 +418,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.00787</v>
+        <v>0.00734</v>
       </c>
       <c r="E3">
-        <v>0.279</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -436,10 +436,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.0416</v>
+        <v>0.0406</v>
       </c>
       <c r="E4">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0824</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="E5">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="6">
@@ -472,46 +472,46 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.0856</v>
+        <v>0.0863</v>
       </c>
       <c r="E6">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <f>HYPERLINK("pathways/Alanine_Metabolism.csv","Alanine Metabolism")</f>
+        <f>HYPERLINK("pathways/Lysine_Degradation.csv","Lysine Degradation")</f>
         <v>0</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.0886</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="E7">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <f>HYPERLINK("pathways/Lysine_Degradation.csv","Lysine Degradation")</f>
+        <f>HYPERLINK("pathways/Alanine_Metabolism.csv","Alanine Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.0922</v>
+        <v>0.0901</v>
       </c>
       <c r="E8">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.105</v>
+        <v>0.103</v>
       </c>
       <c r="E9">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="10">
@@ -544,10 +544,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.135</v>
+        <v>0.131</v>
       </c>
       <c r="E10">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +562,10 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.161</v>
+        <v>0.156</v>
       </c>
       <c r="E11">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="12">
@@ -580,10 +580,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.173</v>
+        <v>0.177</v>
       </c>
       <c r="E12">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="13">
@@ -598,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.198</v>
+        <v>0.194</v>
       </c>
       <c r="E13">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="14">
@@ -616,10 +616,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.202</v>
+        <v>0.197</v>
       </c>
       <c r="E14">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="15">
@@ -637,7 +637,7 @@
         <v>0.216</v>
       </c>
       <c r="E15">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="16">
@@ -652,10 +652,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.242</v>
+        <v>0.248</v>
       </c>
       <c r="E16">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="17">
@@ -670,46 +670,46 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.263</v>
+        <v>0.267</v>
       </c>
       <c r="E17">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <f>HYPERLINK("pathways/Urea_Cycle.csv","Urea Cycle")</f>
+        <f>HYPERLINK("pathways/Arginine_and_Proline_Metabolism.csv","Arginine and Proline Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.281</v>
+        <v>0.282</v>
       </c>
       <c r="E18">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <f>HYPERLINK("pathways/Arginine_and_Proline_Metabolism.csv","Arginine and Proline Metabolism")</f>
+        <f>HYPERLINK("pathways/Urea_Cycle.csv","Urea Cycle")</f>
         <v>0</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.286</v>
+        <v>0.282</v>
       </c>
       <c r="E19">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="20">
@@ -724,10 +724,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.294</v>
+        <v>0.29</v>
       </c>
       <c r="E20">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="21">
@@ -742,10 +742,10 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.301</v>
+        <v>0.304</v>
       </c>
       <c r="E21">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="22">
@@ -760,51 +760,51 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0.304</v>
+        <v>0.308</v>
       </c>
       <c r="E22">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <f>HYPERLINK("pathways/Glutathione_Metabolism.csv","Glutathione Metabolism")</f>
+        <f>HYPERLINK("pathways/Glutamate_Metabolism.csv","Glutamate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.323</v>
+        <v>0.324</v>
       </c>
       <c r="E23">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <f>HYPERLINK("pathways/Glutamate_Metabolism.csv","Glutamate Metabolism")</f>
+        <f>HYPERLINK("pathways/Fatty_Acid_Biosynthesis.csv","Fatty Acid Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.323</v>
+        <v>0.326</v>
       </c>
       <c r="E24">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <f>HYPERLINK("pathways/Phospholipid_Biosynthesis.csv","Phospholipid Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Glutathione_Metabolism.csv","Glutathione Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B25">
@@ -817,16 +817,16 @@
         <v>0.327</v>
       </c>
       <c r="E25">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <f>HYPERLINK("pathways/Fatty_Acid_Biosynthesis.csv","Fatty Acid Biosynthesis")</f>
+        <f>HYPERLINK("pathways/Phospholipid_Biosynthesis.csv","Phospholipid Biosynthesis")</f>
         <v>0</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>0.329</v>
       </c>
       <c r="E26">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="27">
@@ -850,10 +850,10 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.353</v>
+        <v>0.349</v>
       </c>
       <c r="E27">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="28">
@@ -868,10 +868,10 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="E28">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="29">
@@ -886,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.396</v>
+        <v>0.399</v>
       </c>
       <c r="E29">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="30">
@@ -904,10 +904,10 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="E30">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="31">
@@ -925,7 +925,7 @@
         <v>0.407</v>
       </c>
       <c r="E31">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="32">
@@ -940,10 +940,10 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.412</v>
+        <v>0.407</v>
       </c>
       <c r="E32">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="33">
@@ -961,7 +961,7 @@
         <v>0.435</v>
       </c>
       <c r="E33">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="34">
@@ -976,10 +976,10 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="E34">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="35">
@@ -994,10 +994,10 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.496</v>
+        <v>0.494</v>
       </c>
       <c r="E35">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="36">
@@ -1012,10 +1012,10 @@
         <v>-1</v>
       </c>
       <c r="D36">
-        <v>0.51</v>
+        <v>0.511</v>
       </c>
       <c r="E36">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="37">
@@ -1030,10 +1030,10 @@
         <v>-1</v>
       </c>
       <c r="D37">
-        <v>0.526</v>
+        <v>0.529</v>
       </c>
       <c r="E37">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="38">
@@ -1051,16 +1051,16 @@
         <v>0.54</v>
       </c>
       <c r="E38">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <f>HYPERLINK("pathways/Galactose_Metabolism.csv","Galactose Metabolism")</f>
+        <f>HYPERLINK("pathways/Fatty_acid_Metabolism.csv","Fatty acid Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>-1</v>
@@ -1069,30 +1069,30 @@
         <v>0.546</v>
       </c>
       <c r="E39">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <f>HYPERLINK("pathways/Fatty_acid_Metabolism.csv","Fatty acid Metabolism")</f>
+        <f>HYPERLINK("pathways/Galactose_Metabolism.csv","Galactose Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>-1</v>
       </c>
       <c r="D40">
-        <v>0.547</v>
+        <v>0.546</v>
       </c>
       <c r="E40">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <f>HYPERLINK("pathways/Carnitine_Synthesis.csv","Carnitine Synthesis")</f>
+        <f>HYPERLINK("pathways/Retinol_Metabolism.csv","Retinol Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B41">
@@ -1102,15 +1102,15 @@
         <v>-1</v>
       </c>
       <c r="D41">
-        <v>0.578</v>
+        <v>0.58</v>
       </c>
       <c r="E41">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <f>HYPERLINK("pathways/Retinol_Metabolism.csv","Retinol Metabolism")</f>
+        <f>HYPERLINK("pathways/Carnitine_Synthesis.csv","Carnitine Synthesis")</f>
         <v>0</v>
       </c>
       <c r="B42">
@@ -1120,10 +1120,10 @@
         <v>-1</v>
       </c>
       <c r="D42">
-        <v>0.582</v>
+        <v>0.581</v>
       </c>
       <c r="E42">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="43">
@@ -1138,10 +1138,10 @@
         <v>-1</v>
       </c>
       <c r="D43">
-        <v>0.615</v>
+        <v>0.617</v>
       </c>
       <c r="E43">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="44">
@@ -1159,7 +1159,7 @@
         <v>0.618</v>
       </c>
       <c r="E44">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="45">
@@ -1174,10 +1174,10 @@
         <v>-1</v>
       </c>
       <c r="D45">
-        <v>0.645</v>
+        <v>0.646</v>
       </c>
       <c r="E45">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="46">
@@ -1195,7 +1195,7 @@
         <v>0.661</v>
       </c>
       <c r="E46">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="47">
@@ -1213,16 +1213,16 @@
         <v>0.663</v>
       </c>
       <c r="E47">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <f>HYPERLINK("pathways/Vitamin_B6_Metabolism.csv","Vitamin B6 Metabolism")</f>
+        <f>HYPERLINK("pathways/Tryptophan_Metabolism.csv","Tryptophan Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>-1</v>
@@ -1231,34 +1231,34 @@
         <v>0.689</v>
       </c>
       <c r="E48">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <f>HYPERLINK("pathways/Tryptophan_Metabolism.csv","Tryptophan Metabolism")</f>
+        <f>HYPERLINK("pathways/Vitamin_B6_Metabolism.csv","Vitamin B6 Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>-1</v>
       </c>
       <c r="D49">
-        <v>0.692</v>
+        <v>0.69</v>
       </c>
       <c r="E49">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <f>HYPERLINK("pathways/Aspartate_Metabolism.csv","Aspartate Metabolism")</f>
+        <f>HYPERLINK("pathways/Tyrosine_Metabolism.csv","Tyrosine Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>-1</v>
@@ -1267,43 +1267,43 @@
         <v>0.707</v>
       </c>
       <c r="E50">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <f>HYPERLINK("pathways/Tyrosine_Metabolism.csv","Tyrosine Metabolism")</f>
+        <f>HYPERLINK("pathways/Thyroid_hormone_synthesis.csv","Thyroid hormone synthesis")</f>
         <v>0</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>-1</v>
       </c>
       <c r="D51">
-        <v>0.707</v>
+        <v>0.708</v>
       </c>
       <c r="E51">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <f>HYPERLINK("pathways/Thyroid_hormone_synthesis.csv","Thyroid hormone synthesis")</f>
+        <f>HYPERLINK("pathways/Aspartate_Metabolism.csv","Aspartate Metabolism")</f>
         <v>0</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C52">
         <v>-1</v>
       </c>
       <c r="D52">
-        <v>0.708</v>
+        <v>0.709</v>
       </c>
       <c r="E52">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="53">
@@ -1321,7 +1321,7 @@
         <v>0.715</v>
       </c>
       <c r="E53">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="54">
@@ -1339,7 +1339,7 @@
         <v>0.719</v>
       </c>
       <c r="E54">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="55">
@@ -1357,7 +1357,7 @@
         <v>0.755</v>
       </c>
       <c r="E55">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="56">
@@ -1375,7 +1375,7 @@
         <v>0.758</v>
       </c>
       <c r="E56">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="57">
@@ -1393,7 +1393,7 @@
         <v>0.77</v>
       </c>
       <c r="E57">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="58">
@@ -1411,7 +1411,7 @@
         <v>0.771</v>
       </c>
       <c r="E58">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="59">
@@ -1429,7 +1429,7 @@
         <v>0.772</v>
       </c>
       <c r="E59">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="60">
@@ -1444,10 +1444,10 @@
         <v>-1</v>
       </c>
       <c r="D60">
-        <v>0.782</v>
+        <v>0.78</v>
       </c>
       <c r="E60">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="61">
@@ -1462,10 +1462,10 @@
         <v>-1</v>
       </c>
       <c r="D61">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="E61">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="62">
@@ -1480,10 +1480,10 @@
         <v>-1</v>
       </c>
       <c r="D62">
-        <v>0.798</v>
+        <v>0.799</v>
       </c>
       <c r="E62">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="63">
@@ -1501,7 +1501,7 @@
         <v>0.8040000000000001</v>
       </c>
       <c r="E63">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="64">
@@ -1519,7 +1519,7 @@
         <v>0.8040000000000001</v>
       </c>
       <c r="E64">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="65">
@@ -1537,7 +1537,7 @@
         <v>0.8040000000000001</v>
       </c>
       <c r="E65">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="66">
@@ -1555,7 +1555,7 @@
         <v>0.8040000000000001</v>
       </c>
       <c r="E66">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="67">
@@ -1573,7 +1573,7 @@
         <v>0.8040000000000001</v>
       </c>
       <c r="E67">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="68">
@@ -1588,10 +1588,10 @@
         <v>-1</v>
       </c>
       <c r="D68">
-        <v>0.821</v>
+        <v>0.82</v>
       </c>
       <c r="E68">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="69">
@@ -1606,10 +1606,10 @@
         <v>-1</v>
       </c>
       <c r="D69">
-        <v>0.826</v>
+        <v>0.825</v>
       </c>
       <c r="E69">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="70">
@@ -1624,10 +1624,10 @@
         <v>-1</v>
       </c>
       <c r="D70">
-        <v>0.837</v>
+        <v>0.836</v>
       </c>
       <c r="E70">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="71">
@@ -1642,10 +1642,10 @@
         <v>-1</v>
       </c>
       <c r="D71">
-        <v>0.837</v>
+        <v>0.836</v>
       </c>
       <c r="E71">
-        <v>0.849</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="72">
@@ -1660,10 +1660,10 @@
         <v>-1</v>
       </c>
       <c r="D72">
-        <v>0.862</v>
+        <v>0.861</v>
       </c>
       <c r="E72">
-        <v>0.862</v>
+        <v>0.861</v>
       </c>
     </row>
   </sheetData>
